--- a/smm_revision_2/SMM REVISION ASSIGNMENT 2.xlsx
+++ b/smm_revision_2/SMM REVISION ASSIGNMENT 2.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ASSIGNMENT-2" sheetId="12" r:id="rId1"/>
     <sheet name="BIOCON" sheetId="13" r:id="rId2"/>
     <sheet name="BHEL" sheetId="14" r:id="rId3"/>
     <sheet name="NIFTY 50" sheetId="15" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId5"/>
+    <sheet name="Ashok LL" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,6 +416,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -432,38 +462,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +675,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -716,7 +719,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1026,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1037,7 +1040,7 @@
     <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="11"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1054,7 +1057,7 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3"/>
@@ -1073,7 +1076,7 @@
       <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="2"/>
@@ -1092,7 +1095,7 @@
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="2"/>
@@ -1102,16 +1105,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="2">
+      <c r="C4" s="31">
         <v>240</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="31">
         <v>84</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="31">
         <v>11419</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="16">
         <v>80</v>
       </c>
       <c r="G4" s="2"/>
@@ -1128,7 +1131,7 @@
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3"/>
@@ -1147,7 +1150,7 @@
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="2"/>
@@ -1166,7 +1169,7 @@
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2"/>
@@ -1185,7 +1188,7 @@
       <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="2"/>
@@ -1204,7 +1207,7 @@
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="2"/>
@@ -1223,7 +1226,7 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="17" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="2"/>
@@ -1242,7 +1245,7 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="18" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="2"/>
@@ -1261,7 +1264,7 @@
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="2"/>
@@ -1280,7 +1283,7 @@
       <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="2"/>
@@ -1299,7 +1302,7 @@
       <c r="E14" s="2">
         <v>11640</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="17">
         <v>81</v>
       </c>
       <c r="G14" s="2"/>
@@ -1316,7 +1319,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="23">
+      <c r="F15" s="17">
         <v>77</v>
       </c>
       <c r="G15" s="2"/>
@@ -1335,7 +1338,7 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="2"/>
@@ -1354,13 +1357,13 @@
       <c r="E17" s="2">
         <v>11640</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="17">
         <v>81</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -1375,13 +1378,13 @@
       <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="19" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1397,7 @@
       <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="20" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="2"/>
@@ -1415,13 +1418,13 @@
       <c r="E20" s="2">
         <v>289</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="19">
         <v>3</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1436,13 +1439,13 @@
       <c r="E21" s="2">
         <v>834</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="19">
         <v>19</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="25">
+      <c r="F22" s="19">
         <v>20</v>
       </c>
       <c r="G22" s="2"/>
@@ -1472,13 +1475,13 @@
       <c r="E23" s="2">
         <v>221</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="19">
         <v>1</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1493,13 +1496,13 @@
       <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="21" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +1515,7 @@
       <c r="E25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="2"/>
@@ -1531,7 +1534,7 @@
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="2"/>
@@ -1550,7 +1553,7 @@
       <c r="E27" s="2">
         <v>500000</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="19">
         <v>100000</v>
       </c>
       <c r="G27" s="2"/>
@@ -1569,7 +1572,7 @@
       <c r="E28" s="2">
         <v>500000</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="19">
         <v>1000</v>
       </c>
       <c r="G28" s="2"/>
@@ -1591,7 +1594,7 @@
       <c r="E29" s="2">
         <v>10000</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="19">
         <v>2000</v>
       </c>
       <c r="G29" s="2"/>
@@ -1610,7 +1613,7 @@
       <c r="E30" s="2">
         <v>45</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="19">
         <v>12</v>
       </c>
       <c r="G30" s="2"/>
@@ -1623,7 +1626,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
@@ -1640,7 +1643,7 @@
       <c r="E32" s="2">
         <v>500000</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="19">
         <v>1000</v>
       </c>
       <c r="G32" s="2"/>
@@ -1659,7 +1662,7 @@
       <c r="E33" s="2">
         <v>45</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="19">
         <v>12</v>
       </c>
       <c r="G33" s="2"/>
@@ -1678,7 +1681,7 @@
       <c r="E34" s="2">
         <v>9945</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="19">
         <v>12</v>
       </c>
       <c r="G34" s="2"/>
@@ -1697,13 +1700,13 @@
       <c r="E35" s="2">
         <v>13005</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="19">
         <v>36</v>
       </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -1718,13 +1721,13 @@
       <c r="E36" s="2">
         <v>37530</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="19">
         <v>228</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="18"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9" t="s">
         <v>42</v>
       </c>
@@ -1737,7 +1740,7 @@
       <c r="E37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="19">
         <v>240</v>
       </c>
       <c r="G37" s="2"/>
@@ -1756,7 +1759,7 @@
       <c r="E38" s="2">
         <v>2.601</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="19">
         <v>3.6</v>
       </c>
       <c r="G38" s="2"/>
@@ -1775,7 +1778,7 @@
       <c r="E39" s="2">
         <v>7.5060000000000002</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="2"/>
@@ -1818,21 +1821,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="33" spans="9:21" ht="26.25">
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
     </row>
     <row r="37" spans="9:21" s="13" customFormat="1"/>
   </sheetData>
@@ -1862,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:K29"/>
     </sheetView>
   </sheetViews>
@@ -1880,19 +1883,19 @@
       <c r="G1" s="30"/>
     </row>
     <row r="29" spans="1:11" ht="26.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
